--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -9,16 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13960" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13960" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="finalDataInputSheet" sheetId="3" r:id="rId2"/>
-    <sheet name="GoogleKGOrg" sheetId="4" r:id="rId3"/>
-    <sheet name="GoogleKGEvent" sheetId="5" r:id="rId4"/>
-    <sheet name="Question" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="GoogleKGOrg" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
+    <sheet name="GoogleKGEvent" sheetId="5" r:id="rId6"/>
+    <sheet name="Question" sheetId="2" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">finalDataInputSheet!$A$2:$S$39</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="10" r:id="rId9"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="174">
   <si>
     <t>Senator Name</t>
   </si>
@@ -286,9 +295,6 @@
   </si>
   <si>
     <t xml:space="preserve">Citizens' Climate Lobby is an international grassroots environmental group that trains and supports volunteers to build relationships with their elected representatives in order to influence climate policy. </t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>Senator</t>
@@ -538,6 +544,33 @@
   </si>
   <si>
     <t>Ric+M.Llewellyn</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Org</t>
+  </si>
+  <si>
+    <t>Count of Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # of Orgs</t>
+  </si>
+  <si>
+    <t># of Events</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -598,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -668,13 +701,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -691,6 +735,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -705,6 +758,507 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43357.96790520833" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="11">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C1048576" sheet="GoogleKGOrg"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Senator" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Loretta+Sanchez"/>
+        <s v="Kamala+Harris"/>
+        <s v="Ron+Unz"/>
+        <s v="Ling+Ling+Shi"/>
+        <m/>
+        <s v="`" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Org" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43357.969359953706" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="33">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C1048576" sheet="GoogleKGEvent"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Senator" numFmtId="0">
+      <sharedItems containsBlank="1" count="15">
+        <s v="Loretta+Sanchez"/>
+        <s v="Kamala+Harris"/>
+        <s v="Phil+Wyman"/>
+        <s v="Tom+Del+Beccaro"/>
+        <s v="Greg+Conlon"/>
+        <s v="Steve+Stokes"/>
+        <s v="Pamela+Elizondo"/>
+        <s v="Ron+Unz"/>
+        <s v="Eleanor+GarcÃ­a"/>
+        <s v="Jarrell+Williamson"/>
+        <s v="Mark+Matthew+Herd"/>
+        <s v="Ling+Ling+Shi"/>
+        <s v="Paul+Merritt"/>
+        <s v="Alexis+Stuart"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Event" numFmtId="0">
+      <sharedItems containsBlank="1" count="22">
+        <s v="California elections, June 2016"/>
+        <s v="United States Senate election in California, 2016"/>
+        <s v="United States Senate elections, 2016"/>
+        <s v="California Attorney General election, 2014"/>
+        <s v="California Attorney General election, 2010"/>
+        <s v="United States House of Representatives elections, 2008"/>
+        <s v="1998 San Francisco 49ers season"/>
+        <s v="2011 Geelong Football Club season"/>
+        <s v="1997â€“98 NFL playoffs"/>
+        <s v="2015 World Rhythmic Gymnastics Championships"/>
+        <s v="California gubernatorial election, 1994"/>
+        <s v="United States Senate election in Minnesota, 1984"/>
+        <s v="United States gubernatorial elections, 1992"/>
+        <s v="United States Senate elections, 1984"/>
+        <s v="1997 Central Texas tornado outbreak"/>
+        <s v="November 2004 tornado outbreak"/>
+        <s v="1st Golden Rooster Awards"/>
+        <s v="2006â€“07 Hong Kong League Cup"/>
+        <s v="2013 State of Origin series"/>
+        <s v="Jacobite rising of 1715"/>
+        <s v="1997 AAA Championships"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
+  <r>
+    <x v="0"/>
+    <s v="Katella High School"/>
+    <s v="Katella High School is a public high school in Anaheim, California and is part of the Anaheim Union High School District. It serves 2,700 students in grades nine through twelve. The schoolâ€™s mascot is the Knights."/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Global Strategy Group"/>
+    <s v="Global Strategy Group is an American public relations and research firm; specializing in research, strategic communications, digital strategy, grassroots and grasstops organizing, marketing and branding. "/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Chapman University"/>
+    <s v="Chapman University is a private non-profit university located in Orange, California, United States. Chapman University encompasses ten schools and colleges: Dodge College of Film and Media Arts, Wilkinson College of Humanities and Social Sciences, Argyros School of Business and Economics, the School of Communication, Schmid College of Science and Technology, College of Performing Arts, Dale E. "/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="St. Francis Medical Center"/>
+    <s v="St. Francis Medical Center is a not-for-profit hospital in Lynwood, California, US."/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Westmount High School"/>
+    <s v="Westmount High School is a public secondary school located at 4350 St. Catherine St. West in Westmount, Quebec, Canada. Westmount High is Quebec's first and only public school to offer Advanced Placement courses."/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Prime Healthcare Services"/>
+    <s v="Prime Healthcare Services is an American private company. It was established in 2001 by Chairman of the Board Prem Reddy. It operates 45 acute care hospitals serving communities in San Bernardino, San Diego, Los Angeles, Inglewood, Orange County and Shasta County in California, Alabama, Florida, Georgia, Indiana, Michigan, Missouri, Nevada, New Jersey, Ohio, Pennsylvania, Kansas, Rhode Island and Texas. "/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Walter Reed Middle School"/>
+    <s v="Walter Reed Middle School is located in the Studio City neighborhood of Los Angeles, California, USA. Originally called North Hollywood Junior High School, the school was later renamed in honor of U.S. Army Major Walter Reed."/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Moody's Analytics"/>
+    <s v="Moody's Analytics is a subsidiary of Moody's Corporation established in 2007 to focus on non-rating activities, separate from Moody's Investors Service. "/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="North Hollywood High School"/>
+    <s v="North Hollywood High School is a public high school in North Hollywood in Los Angeles, California. NHHS is located in the San Fernando Valley and enrolls approximately 3,000 students each year. "/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Citizens' Climate Lobby"/>
+    <s v="Citizens' Climate Lobby is an international grassroots environmental group that trains and supports volunteers to build relationships with their elected representatives in order to influence climate policy. "/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="33">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="The California state elections, June 2016 were held on June 7, 2016 and included one propositions, primary elections for each party's nominee for President, and primary elections to determine the top-two candidates for California's Class III seat to the United States Senate, all of California's seats to the House of Representatives, all of the seats of the State Assembly, and all odd-numbered seats of the State Senate, who will compete against each other in a run-off on November 8, 2016."/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="The 2016 United States Senate election in California was held November 8, 2016, to elect a member of the United States Senate to represent the State of California, concurrently with the 2016 U.S. presidential election, as well as other elections to the United States Senate in other states and elections to the United States House of Representatives and various state and local elections._x000d_"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Elections to the United States Senate were held November 8, 2016. The presidential election, House elections, 14 gubernatorial elections, and many state and local elections were held on the same date._x000d_"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="The 2014 California Attorney General election was held on November 4, 2014, to elect the Attorney General of California. Incumbent Democratic Attorney General Kamala Harris ran for re-election to a second term in office._x000d_"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="The 2010 California Attorney General election was held on November 2, 2010 to choose the Attorney General of California. The primary election was held on June 8, 2010. Incumbent Attorney General Jerry Brown, a Democrat was elected Governor of California._x000d_"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="The 2014 California Attorney General election was held on November 4, 2014, to elect the Attorney General of California. Incumbent Democratic Attorney General Kamala Harris ran for re-election to a second term in office._x000d_"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="The California state elections, June 2016 were held on June 7, 2016 and included one propositions, primary elections for each party's nominee for President, and primary elections to determine the top-two candidates for California's Class III seat to the United States Senate, all of California's seats to the House of Representatives, all of the seats of the State Assembly, and all odd-numbered seats of the State Senate, who will compete against each other in a run-off on November 8, 2016."/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="The 2016 United States Senate election in California was held November 8, 2016, to elect a member of the United States Senate to represent the State of California, concurrently with the 2016 U.S. presidential election, as well as other elections to the United States Senate in other states and elections to the United States House of Representatives and various state and local elections._x000d_"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="The California state elections, June 2016 were held on June 7, 2016 and included one propositions, primary elections for each party's nominee for President, and primary elections to determine the top-two candidates for California's Class III seat to the United States Senate, all of California's seats to the House of Representatives, all of the seats of the State Assembly, and all odd-numbered seats of the State Senate, who will compete against each other in a run-off on November 8, 2016."/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="The 2016 United States Senate election in California was held November 8, 2016, to elect a member of the United States Senate to represent the State of California, concurrently with the 2016 U.S. presidential election, as well as other elections to the United States Senate in other states and elections to the United States House of Representatives and various state and local elections._x000d_"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="Elections to the United States Senate were held November 8, 2016. The presidential election, House elections, 14 gubernatorial elections, and many state and local elections were held on the same date._x000d_"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <s v="The 2008 United States House of Representatives elections were held on November 4, 2008, to elect members to the United States House of Representatives to serve in the 111th United States Congress from January 3, 2009, until January 3, 2011. "/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <s v="The 1998 San Francisco 49ers season was the team's 49th year with the National Football League._x000d_The season saw the return of Jerry Rice, who missed most of 1997 with a major knee injury._x000d_"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <s v="The 2011 Geelong Football Club season was the club's 112th season in the Australian Football League. Geelong finished the regular season in second position on the ladder with 19 wins and three losses, resulting in qualification for the 2011 AFL finals series. "/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <s v="The National Football League playoffs for the 1997 season began on December 27, 1997. The postseason tournament concluded with the Denver Broncos defeating the Green Bay Packers in Super Bowl XXXII, 31â€“24, on January 25, 1998, at Qualcomm Stadium in San Diego, California."/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="9"/>
+    <s v="The 2015 Rhythmic Gymnastics World Championships, the 34rd edition, was held in Stuttgart, Germany, from September 7 to 13, 2015 at the Porsche Arena."/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="The California state elections, June 2016 were held on June 7, 2016 and included one propositions, primary elections for each party's nominee for President, and primary elections to determine the top-two candidates for California's Class III seat to the United States Senate, all of California's seats to the House of Representatives, all of the seats of the State Assembly, and all odd-numbered seats of the State Senate, who will compete against each other in a run-off on November 8, 2016."/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <s v="The 2016 United States Senate election in California was held November 8, 2016, to elect a member of the United States Senate to represent the State of California, concurrently with the 2016 U.S. presidential election, as well as other elections to the United States Senate in other states and elections to the United States House of Representatives and various state and local elections._x000d_"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="10"/>
+    <s v="The 1994 California gubernatorial election was held on November 8, 1994, in the midst of that year's Republican Revolution. Incumbent Republican Pete Wilson easily won re-election over his main challenger, Democratic State Treasurer Kathleen Brown, the daughter of Pat Brown and younger sister of Jerry Brown, both of whom had previously served as governor. "/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="11"/>
+    <s v="The 1984 United States Senate election in Minnesota was held on November 6, 1984. Incumbent Republican U.S. Senator Rudy Boschwitz defeated Democratic challenger Joan Growe._x000d_"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <s v="United States gubernatorial elections were held on November 3, 1992 in 12 states and two territories. Going into the elections, six of the seats were held by Democrats and six by Republicans. "/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="13"/>
+    <s v="The United States Senate elections, 1984 coincided with the landslide re-election of President Ronald Reagan in the presidential election. "/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="14"/>
+    <s v="The 1997 Central Texas tornado outbreak was a deadly tornado outbreak in Central Texas that occurred on May 27, 1997. The storm produced 20 total tornadoes, including multiple in the vicinity of Austin, Texas. "/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="15"/>
+    <s v="On November 22â€“24, 2004, a major tornado outbreak took place in the Southern United States."/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <s v="The California state elections, June 2016 were held on June 7, 2016 and included one propositions, primary elections for each party's nominee for President, and primary elections to determine the top-two candidates for California's Class III seat to the United States Senate, all of California's seats to the House of Representatives, all of the seats of the State Assembly, and all odd-numbered seats of the State Senate, who will compete against each other in a run-off on November 8, 2016."/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <s v="The 2016 United States Senate election in California was held November 8, 2016, to elect a member of the United States Senate to represent the State of California, concurrently with the 2016 U.S. presidential election, as well as other elections to the United States Senate in other states and elections to the United States House of Representatives and various state and local elections._x000d_"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <s v="Elections to the United States Senate were held November 8, 2016. The presidential election, House elections, 14 gubernatorial elections, and many state and local elections were held on the same date._x000d_"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="16"/>
+    <s v="The 1st Golden Rooster Award honoring the best in mainland film of 1981. Award ceremony held in Hangzhou, Zhejiang Province, May 22, 1981."/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="17"/>
+    <s v="The Hong Kong League Cup 2006â€“07 is the 7th staging of the Hong Kong League Cup._x000d_The competition started on 11 January 2007 with 10 Hong Kong First Division clubs and was concluded on 18 March 2007 with the final._x000d_"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="18"/>
+    <s v="The 2013 State of Origin series was the 33rd time the annual best-of-three series between the Queensland and New South Wales rugby league teams was played entirely under 'state of origin' rules. "/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="19"/>
+    <s v="The Jacobite rising of 1715, was the attempt by James Francis Edward Stuart to regain the thrones of England, Ireland and Scotland for the exiled House of Stuart."/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="20"/>
+    <s v="The 1997 AAA Championships was an outdoor track and field competition organised by the Amateur Athletic Association, held from 24â€“25 July at Alexander Stadium in Birmingham, England. "/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="21"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Org" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="13"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="23">
+        <item x="20"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Event" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -972,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:T13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1890,7 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>47</v>
       </c>
@@ -1370,8 +1924,10 @@
       <c r="O1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1397,13 +1953,13 @@
         <v>17</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>46</v>
@@ -1411,6 +1967,9 @@
       <c r="M2" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
       <c r="O2" s="7" t="s">
         <v>56</v>
       </c>
@@ -1426,11 +1985,16 @@
       <c r="S2" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U2" s="15"/>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>61</v>
       </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -1444,187 +2008,546 @@
         <v>53</v>
       </c>
       <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="U3" s="15"/>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="U4" s="15"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15"/>
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="U6" s="15"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="U7" s="15"/>
+      <c r="V7" s="16"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="15"/>
+      <c r="V8" s="16"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="U9" s="15"/>
+      <c r="V9" s="16"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15"/>
+      <c r="V12" s="16"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15"/>
+      <c r="V13" s="16"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="15"/>
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1634,131 +2557,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="352" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="409" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>84</v>
+      <c r="B7" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1768,373 +2630,136 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="409" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="368" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="384" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="409" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="352" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="384" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="409" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>92</v>
+      <c r="B6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="409" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="368" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="336" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="409" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="336" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="409" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="368" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="409" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" t="s">
-        <v>140</v>
+      <c r="B11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2143,6 +2768,537 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="A4:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="12">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="368" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="384" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="384" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="368" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="336" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="336" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="368" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bujji/Documents/MS_SMU/Capstone/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramya/Documents/GitHub/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5AFCF-95FD-B04D-A6C7-9A3D71F98589}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="460" windowWidth="25660" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="42020" yWindow="4480" windowWidth="25660" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,12 @@
     <sheet name="Question" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">finalDataInputSheet!$A$3:$V$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">finalDataInputSheet!$A$1:$V$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewsApi!$A$1:$L$222</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -3648,9 +3649,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -3889,10 +3890,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3930,12 +3931,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43358.402759375" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="222">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43358.402759375" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="222" xr:uid="{00000000-000A-0000-FFFF-FFFF15000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="NewsApi"/>
   </cacheSource>
@@ -6237,7 +6241,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C23" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6383,6 +6387,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -6650,7 +6657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -7005,11 +7012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8756,6 +8763,7 @@
       <c r="V41" s="30"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V41" xr:uid="{0DE81900-AC6D-9F4B-83E8-444679808C78}"/>
   <sortState ref="A3:T39">
     <sortCondition descending="1" ref="B3:B39"/>
   </sortState>
@@ -8774,7 +8782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9318,57 +9326,57 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="Democratic Party (United States)"/>
-    <hyperlink ref="B2" r:id="rId2" tooltip="Kamala Harris"/>
-    <hyperlink ref="A3" r:id="rId3" tooltip="Democratic Party (United States)"/>
-    <hyperlink ref="B3" r:id="rId4" tooltip="Loretta Sanchez"/>
-    <hyperlink ref="A4" r:id="rId5" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="B4" r:id="rId6" tooltip="George Sundheim"/>
-    <hyperlink ref="A5" r:id="rId7" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="B5" r:id="rId8" tooltip="Phil Wyman"/>
-    <hyperlink ref="A6" r:id="rId9" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="B6" r:id="rId10" tooltip="Tom Del Beccaro"/>
-    <hyperlink ref="A7" r:id="rId11" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="A8" r:id="rId12" tooltip="Democratic Party (United States)"/>
-    <hyperlink ref="A9" r:id="rId13" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="A10" r:id="rId14" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="A11" r:id="rId15" tooltip="Libertarian Party (United States)"/>
-    <hyperlink ref="A12" r:id="rId16" tooltip="Democratic Party (United States)"/>
-    <hyperlink ref="A13" r:id="rId17" tooltip="Green Party (United States)"/>
-    <hyperlink ref="A14" r:id="rId18" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="A15" r:id="rId19" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="B15" r:id="rId20" tooltip="Ron Unz"/>
-    <hyperlink ref="A16" r:id="rId21" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="A17" r:id="rId22" tooltip="No party preference"/>
-    <hyperlink ref="A18" r:id="rId23" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="A19" r:id="rId24" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="A20" r:id="rId25" tooltip="Democratic Party (United States)"/>
-    <hyperlink ref="A21" r:id="rId26" tooltip="Republican Party (United States)"/>
-    <hyperlink ref="A22" r:id="rId27" tooltip="Libertarian Party (United States)"/>
-    <hyperlink ref="B22" r:id="rId28" tooltip="Mark Matthew Herd"/>
-    <hyperlink ref="A23" r:id="rId29" tooltip="Peace and Freedom Party"/>
-    <hyperlink ref="A24" r:id="rId30" tooltip="No party preference"/>
-    <hyperlink ref="A25" r:id="rId31" tooltip="Democratic Party (United States)"/>
-    <hyperlink ref="A26" r:id="rId32" tooltip="Democratic Party (United States)"/>
-    <hyperlink ref="A27" r:id="rId33" tooltip="No party preference"/>
-    <hyperlink ref="A28" r:id="rId34" tooltip="No party preference"/>
-    <hyperlink ref="A29" r:id="rId35" tooltip="No party preference"/>
-    <hyperlink ref="A30" r:id="rId36" tooltip="No party preference"/>
-    <hyperlink ref="A31" r:id="rId37" tooltip="No party preference"/>
-    <hyperlink ref="A32" r:id="rId38" tooltip="No party preference"/>
-    <hyperlink ref="A33" r:id="rId39" tooltip="No party preference"/>
-    <hyperlink ref="A34" r:id="rId40" tooltip="No party preference"/>
-    <hyperlink ref="A35" r:id="rId41" tooltip="No party preference"/>
-    <hyperlink ref="A36" r:id="rId42" tooltip="Write-in candidate"/>
-    <hyperlink ref="A37" r:id="rId43" tooltip="Write-in candidate"/>
-    <hyperlink ref="A38" r:id="rId44" tooltip="Write-in candidate"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Democratic Party (United States)" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="Kamala Harris" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" tooltip="Democratic Party (United States)" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" tooltip="Loretta Sanchez" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B4" r:id="rId6" tooltip="George Sundheim" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A5" r:id="rId7" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B5" r:id="rId8" tooltip="Phil Wyman" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId9" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B6" r:id="rId10" tooltip="Tom Del Beccaro" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="A7" r:id="rId11" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="A8" r:id="rId12" tooltip="Democratic Party (United States)" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="A9" r:id="rId13" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="A10" r:id="rId14" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="A11" r:id="rId15" tooltip="Libertarian Party (United States)" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="A12" r:id="rId16" tooltip="Democratic Party (United States)" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="A13" r:id="rId17" tooltip="Green Party (United States)" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="A14" r:id="rId18" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="A15" r:id="rId19" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B15" r:id="rId20" tooltip="Ron Unz" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="A16" r:id="rId21" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="A17" r:id="rId22" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="A18" r:id="rId23" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="A19" r:id="rId24" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="A20" r:id="rId25" tooltip="Democratic Party (United States)" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="A21" r:id="rId26" tooltip="Republican Party (United States)" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="A22" r:id="rId27" tooltip="Libertarian Party (United States)" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="B22" r:id="rId28" tooltip="Mark Matthew Herd" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="A23" r:id="rId29" tooltip="Peace and Freedom Party" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="A24" r:id="rId30" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="A25" r:id="rId31" tooltip="Democratic Party (United States)" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="A26" r:id="rId32" tooltip="Democratic Party (United States)" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="A27" r:id="rId33" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="A28" r:id="rId34" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="A29" r:id="rId35" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="A30" r:id="rId36" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="A31" r:id="rId37" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="A32" r:id="rId38" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="A33" r:id="rId39" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="A34" r:id="rId40" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="A35" r:id="rId41" tooltip="No party preference" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="A36" r:id="rId42" tooltip="Write-in candidate" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="A37" r:id="rId43" tooltip="Write-in candidate" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="A38" r:id="rId44" tooltip="Write-in candidate" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9507,7 +9515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9560,7 +9568,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="384" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -9571,7 +9579,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -9582,7 +9590,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="384" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -9604,7 +9612,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -9626,7 +9634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -9637,7 +9645,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="368" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="404" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -9659,7 +9667,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="336" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="372" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -9714,7 +9722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -9736,7 +9744,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="336" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="372" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -9802,7 +9810,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -9813,7 +9821,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="368" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="404" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -9835,7 +9843,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -9885,7 +9893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15778,7 +15786,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>13</v>
       </c>
@@ -16114,7 +16122,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>13</v>
       </c>
@@ -19146,13 +19154,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L222"/>
+  <autoFilter ref="A1:L222" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19508,7 +19516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramya/Documents/GitHub/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5AFCF-95FD-B04D-A6C7-9A3D71F98589}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F3A06F-5444-224B-983F-FAADAB4415EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42020" yWindow="4480" windowWidth="25660" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Question" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">finalDataInputSheet!$A$1:$V$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">finalDataInputSheet!$A$3:$Y$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewsApi!$A$1:$L$222</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -7016,7 +7016,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8763,7 +8763,7 @@
       <c r="V41" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V41" xr:uid="{0DE81900-AC6D-9F4B-83E8-444679808C78}"/>
+  <autoFilter ref="A3:Y41" xr:uid="{D15A8492-514D-E745-84C6-37D18E4C1175}"/>
   <sortState ref="A3:T39">
     <sortCondition descending="1" ref="B3:B39"/>
   </sortState>

--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramya/Documents/GitHub/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F3A06F-5444-224B-983F-FAADAB4415EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309E5338-E2B4-8641-9284-EEEBCCD6C39A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42020" yWindow="4480" windowWidth="25660" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7015,8 +7015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8763,7 +8763,6 @@
       <c r="V41" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:Y41" xr:uid="{D15A8492-514D-E745-84C6-37D18E4C1175}"/>
   <sortState ref="A3:T39">
     <sortCondition descending="1" ref="B3:B39"/>
   </sortState>
